--- a/Question_Set2/Programming skills/Selenium with Python.xlsx
+++ b/Question_Set2/Programming skills/Selenium with Python.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You want to modify your browser's behavior using the options parameter of the web driver.  Which of the following options should you import to do this with the Chrome browser?", 'ques_type': 2, 'options': ['from selenium.webdriver.chrome import ChromeOptions', 'from selenium.webdriver.chrome.options import ChromiumOptions', 'from selenium.webdriver.chrome.options import Options', 'from selenium.webdriver.common.options import ArgOptions'], 'score': 'from selenium.webdriver.chrome.options import Options'}, {'title': "True or false: You can import a web driver object and use it to navigate to Google using the code shown below. from selenium import webdriver\nwebdriver.Chrome().navigate('https://google.com')", 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}, {'title': 'You’re testing a new site, and you’ve noticed that when a button on the page is covered by a pop-up, you get an exception when you try to click it.  Which of the following exceptions do you need to catch in this case?', 'ques_type': 2, 'options': ['ElementNotInteractableException', 'NoSuchElementException', 'ElementNotVisibleException', 'ElementNotSelectableException'], 'score': 'ElementNotInteractableException'}, {'title': 'You are working with a button on a webpage with the ID submit_form.  Which of the following methods is most appropriate to find and click this button?', 'ques_type': 2, 'options': ["driver.find_elements_by_css_selector('#submit_form').click()", 'driver.find_element(By.CSS_SELECTOR, "#submit_form").click()', "driver.find_element(By.ID, 'submit_form').click()", "driver.find_elements_by_css_selector('#submit_form')[0].click()"], 'score': 'driver.find_element(By.CSS_SELECTOR, "#submit_form").click()'}]</t>
+    <t>questions = [
+    {
+        "title": "You want to modify your browser's behavior using the options parameter of the web driver.  Which of the following options should you import to do this with the Chrome browser?",
+        "ques_type": 2,
+        "options": [
+            "from selenium.webdriver.chrome import ChromeOptions",
+            "from selenium.webdriver.chrome.options import ChromiumOptions",
+            "from selenium.webdriver.chrome.options import Options",
+            "from selenium.webdriver.common.options import ArgOptions"
+        ],
+        "score": "from selenium.webdriver.chrome.options import Options"
+    },
+    {
+        "title": "True or false: You can import a web driver object and use it to navigate to Google using the code shown below. from selenium import webdriver\nwebdriver.Chrome().navigate('https://google.com')",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    },
+    {
+        "title": "You\u2019re testing a new site, and you\u2019ve noticed that when a button on the page is covered by a pop-up, you get an exception when you try to click it.  Which of the following exceptions do you need to catch in this case?",
+        "ques_type": 2,
+        "options": [
+            "ElementNotInteractableException",
+            "NoSuchElementException",
+            "ElementNotVisibleException",
+            "ElementNotSelectableException"
+        ],
+        "score": "ElementNotInteractableException"
+    },
+    {
+        "title": "You are working with a button on a webpage with the ID submit_form.  Which of the following methods is most appropriate to find and click this button?",
+        "ques_type": 2,
+        "options": [
+            "driver.find_elements_by_css_selector('#submit_form').click()",
+            "driver.find_element(By.CSS_SELECTOR, \"#submit_form\").click()",
+            "driver.find_element(By.ID, 'submit_form').click()",
+            "driver.find_elements_by_css_selector('#submit_form')[0].click()"
+        ],
+        "score": "driver.find_element(By.CSS_SELECTOR, \"#submit_form\").click()"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
